--- a/docs/mibi/mibi-metadata.xlsx
+++ b/docs/mibi/mibi-metadata.xlsx
@@ -14,9 +14,9 @@
     <sheet name="analyte_class list" sheetId="5" r:id="rId5"/>
     <sheet name="resolution_x_unit list" sheetId="6" r:id="rId6"/>
     <sheet name="resolution_y_unit list" sheetId="7" r:id="rId7"/>
-    <sheet name="area_normalize...dose_unit list" sheetId="8" r:id="rId8"/>
-    <sheet name="max_x_width_unit list" sheetId="9" r:id="rId9"/>
-    <sheet name="max_y_height_unit list" sheetId="10" r:id="rId10"/>
+    <sheet name="max_x_width_unit list" sheetId="8" r:id="rId8"/>
+    <sheet name="max_y_height_unit list" sheetId="9" r:id="rId9"/>
+    <sheet name="area_normalize...dose_unit list" sheetId="10" r:id="rId10"/>
     <sheet name="pixel_dwell_time_unit list" sheetId="11" r:id="rId11"/>
     <sheet name="pixel_size_x_unit list" sheetId="12" r:id="rId12"/>
     <sheet name="pixel_size_y_unit list" sheetId="13" r:id="rId13"/>
@@ -306,11 +306,102 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Image width value of the ROI acquisition</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Units of image width of the ROI acquisition</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Image height value of the ROI acquisition</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Units of image height of the ROI acquisition</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A description of the region of interest (ROI) captured in the image.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Multiple images (1-n) are acquired from regions of interest (ROI1, ROI2, ROI3, etc) on a slide. The roi_id is a number from 1-n representing the ROI captured on a slide.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The acquisition_id refers to the directory containing the ROI images for a slide. Together, the acquisition_id and the roi_id indicate the slide-ROI represented in the image.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Area normalized ion dose unit</t>
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -323,7 +414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="AE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -349,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="AF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -362,59 +453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Image width value of the ROI acquisition</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Units of image width of the ROI acquisition</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Image height value of the ROI acquisition</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AC1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Units of image height of the ROI acquisition</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AG1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -427,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0">
+    <comment ref="AH1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -440,7 +479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0">
+    <comment ref="AI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -453,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0">
+    <comment ref="AJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -466,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0">
+    <comment ref="AK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -479,7 +518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0">
+    <comment ref="AL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -492,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0">
+    <comment ref="AM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -505,7 +544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0">
+    <comment ref="AN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -518,7 +557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0">
+    <comment ref="AO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -531,7 +570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0">
+    <comment ref="AP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -544,7 +583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0">
+    <comment ref="AQ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -557,7 +596,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0">
+    <comment ref="AR1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -570,7 +609,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0">
+    <comment ref="AS1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -583,7 +622,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0">
+    <comment ref="AT1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -596,7 +635,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0">
+    <comment ref="AU1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -609,7 +648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0">
+    <comment ref="AV1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -622,7 +661,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0">
+    <comment ref="AW1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -635,7 +674,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0">
+    <comment ref="AX1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -653,7 +692,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>version</t>
   </si>
@@ -736,6 +775,27 @@
     <t>resolution_y_unit</t>
   </si>
   <si>
+    <t>max_x_width_value</t>
+  </si>
+  <si>
+    <t>max_x_width_unit</t>
+  </si>
+  <si>
+    <t>max_y_height_value</t>
+  </si>
+  <si>
+    <t>max_y_height_unit</t>
+  </si>
+  <si>
+    <t>roi_description</t>
+  </si>
+  <si>
+    <t>roi_id</t>
+  </si>
+  <si>
+    <t>acquisition_id</t>
+  </si>
+  <si>
     <t>area_normalized_ion_dose_unit</t>
   </si>
   <si>
@@ -754,18 +814,6 @@
     <t>end_datetime</t>
   </si>
   <si>
-    <t>max_x_width_value</t>
-  </si>
-  <si>
-    <t>max_x_width_unit</t>
-  </si>
-  <si>
-    <t>max_y_height_value</t>
-  </si>
-  <si>
-    <t>max_y_height_unit</t>
-  </si>
-  <si>
     <t>pixel_dwell_time_value</t>
   </si>
   <si>
@@ -818,6 +866,9 @@
   </si>
   <si>
     <t>nA</t>
+  </si>
+  <si>
+    <t>pA</t>
   </si>
   <si>
     <t>reagent_prep_protocols_io_doi</t>
@@ -1205,7 +1256,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AU1"/>
+  <dimension ref="A1:AX1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1214,7 +1265,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:50">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1279,25 +1330,25 @@
         <v>27</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>36</v>
@@ -1309,13 +1360,13 @@
         <v>38</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>43</v>
@@ -1324,41 +1375,50 @@
         <v>44</v>
       </c>
       <c r="AK1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="AR1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AT1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>67</v>
+      <c r="AV1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="32">
+  <dataValidations count="33">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
@@ -1396,76 +1456,80 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mm / um / nm." sqref="T2:T1048576">
       <formula1>'resolution_y_unit list'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nA*hr/mm2." sqref="U2:U1048576">
-      <formula1>'area_normalize...dose_unit list'!$A$1:$A$1</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="V2:V1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="U2:U1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um." sqref="V2:V1048576">
+      <formula1>'max_x_width_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="W2:W1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="X2:X1048576">
-      <formula1>-1e+307</formula1>
-      <formula2>1e+307</formula2>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um." sqref="X2:X1048576">
+      <formula1>'max_y_height_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="Z2:Z1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um." sqref="AA2:AA1048576">
-      <formula1>'max_x_width_unit list'!$A$1:$A$1</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AB2:AB1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nA*hr/mm2." sqref="AB2:AB1048576">
+      <formula1>'area_normalize...dose_unit list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AC2:AC1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um." sqref="AC2:AC1048576">
-      <formula1>'max_y_height_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AD2:AD1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ms." sqref="AE2:AE1048576">
-      <formula1>'pixel_dwell_time_unit list'!$A$1:$A$1</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AF2:AF1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AE2:AE1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm." sqref="AG2:AG1048576">
-      <formula1>'pixel_size_x_unit list'!$A$1:$A$1</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AH2:AH1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AG2:AG1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm." sqref="AI2:AI1048576">
-      <formula1>'pixel_size_y_unit list'!$A$1:$A$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Custom / Ionpath." sqref="AJ2:AJ1048576">
-      <formula1>'preparation_in...nt_vendor list'!$A$1:$A$2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Custom / MIBIscope 1 / MIBIscope 2." sqref="AK2:AK1048576">
-      <formula1>'preparation_in...ent_model list'!$A$1:$A$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Xe." sqref="AL2:AL1048576">
-      <formula1>'primary_ion list'!$A$1:$A$1</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AM2:AM1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ms." sqref="AH2:AH1048576">
+      <formula1>'pixel_dwell_time_unit list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AI2:AI1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nA." sqref="AN2:AN1048576">
-      <formula1>'primary_ion_current_unit list'!$A$1:$A$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: float / integer / string." sqref="AQ2:AQ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm." sqref="AJ2:AJ1048576">
+      <formula1>'pixel_size_x_unit list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AK2:AK1048576">
+      <formula1>-1e+307</formula1>
+      <formula2>1e+307</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm." sqref="AL2:AL1048576">
+      <formula1>'pixel_size_y_unit list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Custom / Ionpath." sqref="AM2:AM1048576">
+      <formula1>'preparation_in...nt_vendor list'!$A$1:$A$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Custom / MIBIscope 1 / MIBIscope 2." sqref="AN2:AN1048576">
+      <formula1>'preparation_in...ent_model list'!$A$1:$A$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Xe." sqref="AO2:AO1048576">
+      <formula1>'primary_ion list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AP2:AP1048576">
+      <formula1>-1e+307</formula1>
+      <formula2>1e+307</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nA / pA." sqref="AQ2:AQ1048576">
+      <formula1>'primary_ion_current_unit list'!$A$1:$A$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: float / integer / string." sqref="AT2:AT1048576">
       <formula1>'segment_data_format list'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: dual count / pulse count / intensity value." sqref="AR2:AR1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: dual count / pulse count / intensity value." sqref="AU2:AU1048576">
       <formula1>'signal_type list'!$A$1:$A$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -1484,7 +1548,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1502,7 +1566,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1556,12 +1620,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1579,17 +1643,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1607,7 +1671,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1617,7 +1681,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1625,7 +1689,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1643,17 +1712,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1671,17 +1740,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1827,7 +1896,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/docs/mibi/mibi-metadata.xlsx
+++ b/docs/mibi/mibi-metadata.xlsx
@@ -397,11 +397,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>An acquisition instrument is the device that contains the signal detection hardware and signal processing software. Assays generate signals such as light of various intensities or color or signals representing the molecular mass.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Manufacturers of an acquisition instrument may offer various versions (models) of that instrument with different features or sensitivities. Differences in features or sensitivities may be relevant to processing or interpretation of the data.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Area normalized ion dose unit</t>
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -414,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -427,7 +453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0">
+    <comment ref="AG1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -440,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0">
+    <comment ref="AH1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -453,7 +479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0">
+    <comment ref="AI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -466,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0">
+    <comment ref="AJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -479,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0">
+    <comment ref="AK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -492,7 +518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0">
+    <comment ref="AL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -505,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0">
+    <comment ref="AM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -518,7 +544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0">
+    <comment ref="AN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -531,7 +557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0">
+    <comment ref="AO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -544,7 +570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0">
+    <comment ref="AP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -557,7 +583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0">
+    <comment ref="AQ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -570,7 +596,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0">
+    <comment ref="AR1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -583,7 +609,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0">
+    <comment ref="AS1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -596,7 +622,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0">
+    <comment ref="AT1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -609,7 +635,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0">
+    <comment ref="AU1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -622,7 +648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0">
+    <comment ref="AV1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -635,7 +661,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0">
+    <comment ref="AW1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -648,7 +674,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0">
+    <comment ref="AX1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -661,7 +687,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0">
+    <comment ref="AY1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -674,7 +700,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0">
+    <comment ref="AZ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -692,7 +718,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>version</t>
   </si>
@@ -794,6 +820,12 @@
   </si>
   <si>
     <t>acquisition_id</t>
+  </si>
+  <si>
+    <t>acquisition_instrument_vendor</t>
+  </si>
+  <si>
+    <t>acquisition_instrument_model</t>
   </si>
   <si>
     <t>area_normalized_ion_dose_unit</t>
@@ -1256,7 +1288,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX1"/>
+  <dimension ref="A1:AZ1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1265,7 +1297,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1351,10 +1383,10 @@
         <v>34</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>38</v>
@@ -1369,10 +1401,10 @@
         <v>41</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>45</v>
@@ -1384,37 +1416,43 @@
         <v>47</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AP1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="AR1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AX1" s="1" t="s">
         <v>71</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1474,62 +1512,62 @@
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nA*hr/mm2." sqref="AB2:AB1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nA*hr/mm2." sqref="AD2:AD1048576">
       <formula1>'area_normalize...dose_unit list'!$A$1:$A$1</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AC2:AC1048576">
-      <formula1>-1e+307</formula1>
-      <formula2>1e+307</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AD2:AD1048576">
-      <formula1>-1e+307</formula1>
-      <formula2>1e+307</formula2>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AE2:AE1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AF2:AF1048576">
+      <formula1>-1e+307</formula1>
+      <formula2>1e+307</formula2>
+    </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AG2:AG1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ms." sqref="AH2:AH1048576">
-      <formula1>'pixel_dwell_time_unit list'!$A$1:$A$1</formula1>
-    </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AI2:AI1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm." sqref="AJ2:AJ1048576">
-      <formula1>'pixel_size_x_unit list'!$A$1:$A$1</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ms." sqref="AJ2:AJ1048576">
+      <formula1>'pixel_dwell_time_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AK2:AK1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm." sqref="AL2:AL1048576">
-      <formula1>'pixel_size_y_unit list'!$A$1:$A$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Custom / Ionpath." sqref="AM2:AM1048576">
-      <formula1>'preparation_in...nt_vendor list'!$A$1:$A$2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Custom / MIBIscope 1 / MIBIscope 2." sqref="AN2:AN1048576">
-      <formula1>'preparation_in...ent_model list'!$A$1:$A$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Xe." sqref="AO2:AO1048576">
-      <formula1>'primary_ion list'!$A$1:$A$1</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AP2:AP1048576">
+      <formula1>'pixel_size_x_unit list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AM2:AM1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nA / pA." sqref="AQ2:AQ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm." sqref="AN2:AN1048576">
+      <formula1>'pixel_size_y_unit list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Custom / Ionpath." sqref="AO2:AO1048576">
+      <formula1>'preparation_in...nt_vendor list'!$A$1:$A$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Custom / MIBIscope 1 / MIBIscope 2." sqref="AP2:AP1048576">
+      <formula1>'preparation_in...ent_model list'!$A$1:$A$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Xe." sqref="AQ2:AQ1048576">
+      <formula1>'primary_ion list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AR2:AR1048576">
+      <formula1>-1e+307</formula1>
+      <formula2>1e+307</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nA / pA." sqref="AS2:AS1048576">
       <formula1>'primary_ion_current_unit list'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: float / integer / string." sqref="AT2:AT1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: float / integer / string." sqref="AV2:AV1048576">
       <formula1>'segment_data_format list'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: dual count / pulse count / intensity value." sqref="AU2:AU1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: dual count / pulse count / intensity value." sqref="AW2:AW1048576">
       <formula1>'signal_type list'!$A$1:$A$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -1548,7 +1586,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +1604,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1620,12 +1658,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1643,17 +1681,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1671,7 +1709,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1689,12 +1727,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1712,17 +1750,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1740,17 +1778,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/docs/mibi/mibi-metadata.xlsx
+++ b/docs/mibi/mibi-metadata.xlsx
@@ -228,11 +228,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>An acquisition instrument is the device that contains the signal detection hardware and signal processing software. Assays generate signals such as light of various intensities or color or signals representing the molecular mass.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Manufacturers of an acquisition instrument may offer various versions (models) of that instrument with different features or sensitivities. Differences in features or sensitivities may be relevant to processing or interpretation of the data.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Number of antibodies</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -258,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -284,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -297,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="X1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -323,7 +349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="Y1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -349,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -362,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -375,7 +401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -385,32 +411,6 @@
             <family val="2"/>
           </rPr>
           <t>The acquisition_id refers to the directory containing the ROI images for a slide. Together, the acquisition_id and the roi_id indicate the slide-ROI represented in the image.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>An acquisition instrument is the device that contains the signal detection hardware and signal processing software. Assays generate signals such as light of various intensities or color or signals representing the molecular mass.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AC1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Manufacturers of an acquisition instrument may offer various versions (models) of that instrument with different features or sensitivities. Differences in features or sensitivities may be relevant to processing or interpretation of the data.</t>
         </r>
       </text>
     </comment>
@@ -774,6 +774,12 @@
     <t>is_targeted</t>
   </si>
   <si>
+    <t>acquisition_instrument_vendor</t>
+  </si>
+  <si>
+    <t>acquisition_instrument_model</t>
+  </si>
+  <si>
     <t>number_of_antibodies</t>
   </si>
   <si>
@@ -820,12 +826,6 @@
   </si>
   <si>
     <t>acquisition_id</t>
-  </si>
-  <si>
-    <t>acquisition_instrument_vendor</t>
-  </si>
-  <si>
-    <t>acquisition_instrument_model</t>
   </si>
   <si>
     <t>area_normalized_ion_dose_unit</t>
@@ -1353,10 +1353,10 @@
         <v>21</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>27</v>
@@ -1472,43 +1472,43 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="N2:N1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="O2:O1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="Q2:Q1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="P2:P1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="R2:R1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="Q2:Q1048576">
-      <formula1>-1e+307</formula1>
-      <formula2>1e+307</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mm / um / nm." sqref="R2:R1048576">
-      <formula1>'resolution_x_unit list'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="S2:S1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mm / um / nm." sqref="T2:T1048576">
-      <formula1>'resolution_y_unit list'!$A$1:$A$3</formula1>
+      <formula1>'resolution_x_unit list'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="U2:U1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um." sqref="V2:V1048576">
-      <formula1>'max_x_width_unit list'!$A$1:$A$1</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mm / um / nm." sqref="V2:V1048576">
+      <formula1>'resolution_y_unit list'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="W2:W1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um." sqref="X2:X1048576">
+      <formula1>'max_x_width_unit list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="Y2:Y1048576">
+      <formula1>-1e+307</formula1>
+      <formula2>1e+307</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um." sqref="Z2:Z1048576">
       <formula1>'max_y_height_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="Z2:Z1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AB2:AB1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
@@ -1622,7 +1622,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1640,7 +1640,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1878,17 +1878,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1906,17 +1906,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1934,7 +1934,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1952,7 +1952,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/docs/mibi/mibi-metadata.xlsx
+++ b/docs/mibi/mibi-metadata.xlsx
@@ -696,11 +696,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Relative path to file with antibody information for this dataset.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Relative path to file with ORCID IDs for contributors for this dataset.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0">
+    <comment ref="BA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -718,7 +731,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>version</t>
   </si>
@@ -934,6 +947,9 @@
   </si>
   <si>
     <t>start_datetime</t>
+  </si>
+  <si>
+    <t>antibodies_path</t>
   </si>
   <si>
     <t>contributors_path</t>
@@ -1288,7 +1304,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ1"/>
+  <dimension ref="A1:BA1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1297,7 +1313,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:53">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1453,6 +1469,9 @@
       </c>
       <c r="AZ1" s="1" t="s">
         <v>73</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/docs/mibi/mibi-metadata.xlsx
+++ b/docs/mibi/mibi-metadata.xlsx
@@ -228,11 +228,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>An acquisition instrument is the device that contains the signal detection hardware and signal processing software. Assays generate signals such as light of various intensities or color or signals representing the molecular mass.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Manufacturers of an acquisition instrument may offer various versions (models) of that instrument with different features or sensitivities. Differences in features or sensitivities may be relevant to processing or interpretation of the data.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Number of antibodies</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -258,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -284,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -297,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="X1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -323,7 +349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="Y1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -349,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -362,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -375,7 +401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -388,7 +414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -401,7 +427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -414,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -427,7 +453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0">
+    <comment ref="AG1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -440,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0">
+    <comment ref="AH1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -453,7 +479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0">
+    <comment ref="AI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -466,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0">
+    <comment ref="AJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -479,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0">
+    <comment ref="AK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -492,7 +518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0">
+    <comment ref="AL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -505,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0">
+    <comment ref="AM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -518,7 +544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0">
+    <comment ref="AN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -531,7 +557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0">
+    <comment ref="AO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -544,7 +570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0">
+    <comment ref="AP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -557,7 +583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0">
+    <comment ref="AQ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -570,7 +596,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0">
+    <comment ref="AR1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -583,7 +609,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0">
+    <comment ref="AS1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -596,7 +622,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0">
+    <comment ref="AT1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -609,7 +635,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0">
+    <comment ref="AU1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -622,7 +648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0">
+    <comment ref="AV1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -635,7 +661,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0">
+    <comment ref="AW1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -648,7 +674,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0">
+    <comment ref="AX1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -661,7 +687,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0">
+    <comment ref="AY1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Relative path to file with antibody information for this dataset.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -674,7 +713,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0">
+    <comment ref="BA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -692,7 +731,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>version</t>
   </si>
@@ -748,6 +787,12 @@
     <t>is_targeted</t>
   </si>
   <si>
+    <t>acquisition_instrument_vendor</t>
+  </si>
+  <si>
+    <t>acquisition_instrument_model</t>
+  </si>
+  <si>
     <t>number_of_antibodies</t>
   </si>
   <si>
@@ -902,6 +947,9 @@
   </si>
   <si>
     <t>start_datetime</t>
+  </si>
+  <si>
+    <t>antibodies_path</t>
   </si>
   <si>
     <t>contributors_path</t>
@@ -1256,7 +1304,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX1"/>
+  <dimension ref="A1:BA1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1265,7 +1313,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:53">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1321,10 +1369,10 @@
         <v>21</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>27</v>
@@ -1351,10 +1399,10 @@
         <v>34</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>38</v>
@@ -1369,10 +1417,10 @@
         <v>41</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>45</v>
@@ -1384,37 +1432,46 @@
         <v>47</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AP1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="AR1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AX1" s="1" t="s">
         <v>71</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1434,102 +1491,102 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="N2:N1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="O2:O1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="Q2:Q1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="P2:P1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="R2:R1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="Q2:Q1048576">
-      <formula1>-1e+307</formula1>
-      <formula2>1e+307</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mm / um / nm." sqref="R2:R1048576">
-      <formula1>'resolution_x_unit list'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="S2:S1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mm / um / nm." sqref="T2:T1048576">
-      <formula1>'resolution_y_unit list'!$A$1:$A$3</formula1>
+      <formula1>'resolution_x_unit list'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="U2:U1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um." sqref="V2:V1048576">
-      <formula1>'max_x_width_unit list'!$A$1:$A$1</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mm / um / nm." sqref="V2:V1048576">
+      <formula1>'resolution_y_unit list'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="W2:W1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um." sqref="X2:X1048576">
-      <formula1>'max_y_height_unit list'!$A$1:$A$1</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="Z2:Z1048576">
+      <formula1>'max_x_width_unit list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="Y2:Y1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nA*hr/mm2." sqref="AB2:AB1048576">
-      <formula1>'area_normalize...dose_unit list'!$A$1:$A$1</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AC2:AC1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um." sqref="Z2:Z1048576">
+      <formula1>'max_y_height_unit list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AB2:AB1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AD2:AD1048576">
-      <formula1>-1e+307</formula1>
-      <formula2>1e+307</formula2>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nA*hr/mm2." sqref="AD2:AD1048576">
+      <formula1>'area_normalize...dose_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AE2:AE1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AF2:AF1048576">
+      <formula1>-1e+307</formula1>
+      <formula2>1e+307</formula2>
+    </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AG2:AG1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ms." sqref="AH2:AH1048576">
-      <formula1>'pixel_dwell_time_unit list'!$A$1:$A$1</formula1>
-    </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AI2:AI1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm." sqref="AJ2:AJ1048576">
-      <formula1>'pixel_size_x_unit list'!$A$1:$A$1</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ms." sqref="AJ2:AJ1048576">
+      <formula1>'pixel_dwell_time_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AK2:AK1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm." sqref="AL2:AL1048576">
-      <formula1>'pixel_size_y_unit list'!$A$1:$A$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Custom / Ionpath." sqref="AM2:AM1048576">
-      <formula1>'preparation_in...nt_vendor list'!$A$1:$A$2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Custom / MIBIscope 1 / MIBIscope 2." sqref="AN2:AN1048576">
-      <formula1>'preparation_in...ent_model list'!$A$1:$A$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Xe." sqref="AO2:AO1048576">
-      <formula1>'primary_ion list'!$A$1:$A$1</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AP2:AP1048576">
+      <formula1>'pixel_size_x_unit list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AM2:AM1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nA / pA." sqref="AQ2:AQ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm." sqref="AN2:AN1048576">
+      <formula1>'pixel_size_y_unit list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Custom / Ionpath." sqref="AO2:AO1048576">
+      <formula1>'preparation_in...nt_vendor list'!$A$1:$A$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Custom / MIBIscope 1 / MIBIscope 2." sqref="AP2:AP1048576">
+      <formula1>'preparation_in...ent_model list'!$A$1:$A$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Xe." sqref="AQ2:AQ1048576">
+      <formula1>'primary_ion list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AR2:AR1048576">
+      <formula1>-1e+307</formula1>
+      <formula2>1e+307</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nA / pA." sqref="AS2:AS1048576">
       <formula1>'primary_ion_current_unit list'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: float / integer / string." sqref="AT2:AT1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: float / integer / string." sqref="AV2:AV1048576">
       <formula1>'segment_data_format list'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: dual count / pulse count / intensity value." sqref="AU2:AU1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: dual count / pulse count / intensity value." sqref="AW2:AW1048576">
       <formula1>'signal_type list'!$A$1:$A$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -1548,7 +1605,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +1623,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1584,7 +1641,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1602,7 +1659,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1620,12 +1677,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1643,17 +1700,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1671,7 +1728,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1689,12 +1746,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1712,17 +1769,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1740,17 +1797,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1840,17 +1897,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1868,17 +1925,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1896,7 +1953,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1914,7 +1971,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/docs/mibi/mibi-metadata.xlsx
+++ b/docs/mibi/mibi-metadata.xlsx
@@ -1527,9 +1527,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: um." sqref="Z2:Z1048576">
       <formula1>'max_y_height_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AB2:AB1048576">
-      <formula1>-1e+307</formula1>
-      <formula2>1e+307</formula2>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AB2:AB1048576">
+      <formula1>-2147483647</formula1>
+      <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nA*hr/mm2." sqref="AD2:AD1048576">
       <formula1>'area_normalize...dose_unit list'!$A$1:$A$1</formula1>

--- a/docs/mibi/mibi-metadata.xlsx
+++ b/docs/mibi/mibi-metadata.xlsx
@@ -775,7 +775,7 @@
     <t>assay_type</t>
   </si>
   <si>
-    <t>Multiplex Ion Beam Imaging</t>
+    <t>MIBI</t>
   </si>
   <si>
     <t>analyte_class</t>
@@ -1482,7 +1482,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mass_spectrometry_imaging." sqref="K2:K1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Multiplex Ion Beam Imaging." sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: MIBI." sqref="L2:L1048576">
       <formula1>'assay_type list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: protein." sqref="M2:M1048576">
